--- a/比特直播课/比特直播课笔记/笔记-数据结构/2024_11_1 5.排序(2).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-数据结构/2024_11_1 5.排序(2).xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
